--- a/Warrior-Pilgrims/Assets/Resources/Data/Stat Modifiers/Stat Modifiers.xlsx
+++ b/Warrior-Pilgrims/Assets/Resources/Data/Stat Modifiers/Stat Modifiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Games\GitHub\Warrior-Pilgrims\Warrior-Pilgrims\Assets\Resources\Data\Stat Modifiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8417058-B35A-4882-9F0F-DED3C9E0A345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC906A4C-1967-4859-A0B8-5A60FD73DFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -56,23 +56,35 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Small Dexterity Bonus</t>
-  </si>
-  <si>
-    <t>Small Flat Bonus</t>
-  </si>
-  <si>
-    <t>Dexterity</t>
-  </si>
-  <si>
     <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Medium Flat Malus</t>
+  </si>
+  <si>
+    <t>Magic Accuracy</t>
+  </si>
+  <si>
+    <t>Medium Magic Accuracy Flat Malus</t>
+  </si>
+  <si>
+    <t>Medium Ranged Accuracy Flat Malus</t>
+  </si>
+  <si>
+    <t>Medium Melee Accuracy Flat Malus</t>
+  </si>
+  <si>
+    <t>Ranged Accuracy</t>
+  </si>
+  <si>
+    <t>Melee Accuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,16 +98,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,17 +140,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -147,11 +206,9 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
-      <sheetName val="Stats"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -174,15 +231,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6832C49-2A7B-4B20-807B-819796B82BE6}" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{A6832C49-2A7B-4B20-807B-819796B82BE6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6832C49-2A7B-4B20-807B-819796B82BE6}" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{A6832C49-2A7B-4B20-807B-819796B82BE6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{071F9C35-27CA-4C09-943B-D805491230AF}" name="Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7A26614F-1F59-4BE6-B1F4-B90D38A6705A}" name="Magnitude" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{46D3D2AB-86CC-442F-B773-E6467E65ED29}" name="Value" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{071F9C35-27CA-4C09-943B-D805491230AF}" name="Name" dataDxfId="2" dataCellStyle="Input"/>
+    <tableColumn id="2" xr3:uid="{7A26614F-1F59-4BE6-B1F4-B90D38A6705A}" name="Magnitude" dataDxfId="1" dataCellStyle="Input"/>
+    <tableColumn id="3" xr3:uid="{46D3D2AB-86CC-442F-B773-E6467E65ED29}" name="Value" dataDxfId="0" dataCellStyle="Calculation">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table1[[#This Row],[Magnitude]], [2]!Table5[#Data], 2, FALSE), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{865969C1-84B6-4CF3-9C51-3299B6FBCA0D}" name="Stat"/>
+    <tableColumn id="4" xr3:uid="{865969C1-84B6-4CF3-9C51-3299B6FBCA0D}" name="Stat" dataCellStyle="Input"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -451,18 +508,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -471,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -481,28 +538,58 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>IFERROR(VLOOKUP(Table1[[#This Row],[Magnitude]], [2]!Table5[#Data], 2, FALSE), "")</f>
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>-4</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Magnitude]], [2]!Table5[#Data], 2, FALSE), "")</f>
+        <v>-4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <f>IFERROR(VLOOKUP(Table1[[#This Row],[Magnitude]], [2]!Table5[#Data], 2, FALSE), "")</f>
+        <v>-4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{63743C50-561F-4858-80AC-F4D502371147}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{63743C50-561F-4858-80AC-F4D502371147}">
       <formula1>MagnitudesForList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{2713237C-E92D-4002-B341-D81D49681622}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{2713237C-E92D-4002-B341-D81D49681622}">
       <formula1>StatsForList</formula1>
     </dataValidation>
   </dataValidations>
